--- a/Data Mix/Resultat/Auvergne.xlsx
+++ b/Data Mix/Resultat/Auvergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I109"/>
+  <dimension ref="A1:I118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Région</t>
+          <t>Region</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -884,29 +884,29 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2014-1</t>
+          <t>2013</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>148491272</v>
+        <v>907266339</v>
       </c>
       <c r="D14" t="n">
-        <v>2876932</v>
+        <v>20158856</v>
       </c>
       <c r="E14" t="n">
-        <v>196918255</v>
+        <v>1191248751</v>
       </c>
       <c r="F14" t="n">
-        <v>1621032</v>
+        <v>9279613</v>
       </c>
       <c r="G14" t="n">
-        <v>973921</v>
+        <v>5974105</v>
       </c>
       <c r="H14" t="n">
-        <v>71948491</v>
+        <v>444890884</v>
       </c>
       <c r="I14" t="n">
-        <v>1281337</v>
+        <v>7114345</v>
       </c>
     </row>
     <row r="15">
@@ -917,29 +917,29 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2014-2</t>
+          <t>2014-1</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>160434063</v>
+        <v>148491272</v>
       </c>
       <c r="D15" t="n">
-        <v>3126130</v>
+        <v>2876932</v>
       </c>
       <c r="E15" t="n">
-        <v>213126367</v>
+        <v>196918255</v>
       </c>
       <c r="F15" t="n">
-        <v>1781475</v>
+        <v>1621032</v>
       </c>
       <c r="G15" t="n">
-        <v>1027258</v>
+        <v>973921</v>
       </c>
       <c r="H15" t="n">
-        <v>77760344</v>
+        <v>71948491</v>
       </c>
       <c r="I15" t="n">
-        <v>1432796</v>
+        <v>1281337</v>
       </c>
     </row>
     <row r="16">
@@ -950,29 +950,29 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2014-3</t>
+          <t>2014-2</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>172303162</v>
+        <v>160434063</v>
       </c>
       <c r="D16" t="n">
-        <v>3405937</v>
+        <v>3126130</v>
       </c>
       <c r="E16" t="n">
-        <v>228546215</v>
+        <v>213126367</v>
       </c>
       <c r="F16" t="n">
-        <v>1922535</v>
+        <v>1781475</v>
       </c>
       <c r="G16" t="n">
-        <v>1146328</v>
+        <v>1027258</v>
       </c>
       <c r="H16" t="n">
-        <v>83306792</v>
+        <v>77760344</v>
       </c>
       <c r="I16" t="n">
-        <v>1595848</v>
+        <v>1432796</v>
       </c>
     </row>
     <row r="17">
@@ -983,29 +983,29 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2014-4</t>
+          <t>2014-3</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>182497095</v>
+        <v>172303162</v>
       </c>
       <c r="D17" t="n">
-        <v>3456845</v>
+        <v>3405937</v>
       </c>
       <c r="E17" t="n">
-        <v>241843328</v>
+        <v>228546215</v>
       </c>
       <c r="F17" t="n">
-        <v>2037971</v>
+        <v>1922535</v>
       </c>
       <c r="G17" t="n">
-        <v>1276514</v>
+        <v>1146328</v>
       </c>
       <c r="H17" t="n">
-        <v>87867176</v>
+        <v>83306792</v>
       </c>
       <c r="I17" t="n">
-        <v>1694674</v>
+        <v>1595848</v>
       </c>
     </row>
     <row r="18">
@@ -1016,29 +1016,29 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2014-5</t>
+          <t>2014-4</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>192127310</v>
+        <v>182497095</v>
       </c>
       <c r="D18" t="n">
-        <v>3500769</v>
+        <v>3456845</v>
       </c>
       <c r="E18" t="n">
-        <v>255181751</v>
+        <v>241843328</v>
       </c>
       <c r="F18" t="n">
-        <v>2217482</v>
+        <v>2037971</v>
       </c>
       <c r="G18" t="n">
-        <v>1422712</v>
+        <v>1276514</v>
       </c>
       <c r="H18" t="n">
-        <v>92902533</v>
+        <v>87867176</v>
       </c>
       <c r="I18" t="n">
-        <v>1811040</v>
+        <v>1694674</v>
       </c>
     </row>
     <row r="19">
@@ -1049,29 +1049,29 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2014-6</t>
+          <t>2014-5</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>201287262</v>
+        <v>192127310</v>
       </c>
       <c r="D19" t="n">
-        <v>3531302</v>
+        <v>3500769</v>
       </c>
       <c r="E19" t="n">
-        <v>267783518</v>
+        <v>255181751</v>
       </c>
       <c r="F19" t="n">
-        <v>2327731</v>
+        <v>2217482</v>
       </c>
       <c r="G19" t="n">
-        <v>1595187</v>
+        <v>1422712</v>
       </c>
       <c r="H19" t="n">
-        <v>97265015</v>
+        <v>92902533</v>
       </c>
       <c r="I19" t="n">
-        <v>1904879</v>
+        <v>1811040</v>
       </c>
     </row>
     <row r="20">
@@ -1082,29 +1082,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2014-7</t>
+          <t>2014-6</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>210856104</v>
+        <v>201287262</v>
       </c>
       <c r="D20" t="n">
-        <v>3582455</v>
+        <v>3531302</v>
       </c>
       <c r="E20" t="n">
-        <v>280536287</v>
+        <v>267783518</v>
       </c>
       <c r="F20" t="n">
-        <v>2435313</v>
+        <v>2327731</v>
       </c>
       <c r="G20" t="n">
-        <v>1731819</v>
+        <v>1595187</v>
       </c>
       <c r="H20" t="n">
-        <v>103004713</v>
+        <v>97265015</v>
       </c>
       <c r="I20" t="n">
-        <v>2016203</v>
+        <v>1904879</v>
       </c>
     </row>
     <row r="21">
@@ -1115,29 +1115,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2014-8</t>
+          <t>2014-7</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>219384939</v>
+        <v>210856104</v>
       </c>
       <c r="D21" t="n">
-        <v>3630942</v>
+        <v>3582455</v>
       </c>
       <c r="E21" t="n">
-        <v>293241125</v>
+        <v>280536287</v>
       </c>
       <c r="F21" t="n">
-        <v>2512277</v>
+        <v>2435313</v>
       </c>
       <c r="G21" t="n">
-        <v>1884360</v>
+        <v>1731819</v>
       </c>
       <c r="H21" t="n">
-        <v>107967978</v>
+        <v>103004713</v>
       </c>
       <c r="I21" t="n">
-        <v>2135153</v>
+        <v>2016203</v>
       </c>
     </row>
     <row r="22">
@@ -1148,29 +1148,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2014-9</t>
+          <t>2014-8</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>228748726</v>
+        <v>219384939</v>
       </c>
       <c r="D22" t="n">
-        <v>3710964</v>
+        <v>3630942</v>
       </c>
       <c r="E22" t="n">
-        <v>308111819</v>
+        <v>293241125</v>
       </c>
       <c r="F22" t="n">
-        <v>2609519</v>
+        <v>2512277</v>
       </c>
       <c r="G22" t="n">
-        <v>2021076</v>
+        <v>1884360</v>
       </c>
       <c r="H22" t="n">
-        <v>111104476</v>
+        <v>107967978</v>
       </c>
       <c r="I22" t="n">
-        <v>2251883</v>
+        <v>2135153</v>
       </c>
     </row>
     <row r="23">
@@ -1181,29 +1181,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2014-10</t>
+          <t>2014-9</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>238858685</v>
+        <v>228748726</v>
       </c>
       <c r="D23" t="n">
-        <v>3861988</v>
+        <v>3710964</v>
       </c>
       <c r="E23" t="n">
-        <v>322782537</v>
+        <v>308111819</v>
       </c>
       <c r="F23" t="n">
-        <v>2714775</v>
+        <v>2609519</v>
       </c>
       <c r="G23" t="n">
-        <v>2123235</v>
+        <v>2021076</v>
       </c>
       <c r="H23" t="n">
-        <v>114324864</v>
+        <v>111104476</v>
       </c>
       <c r="I23" t="n">
-        <v>2383733</v>
+        <v>2251883</v>
       </c>
     </row>
     <row r="24">
@@ -1214,29 +1214,29 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2014-11</t>
+          <t>2014-10</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>250089267</v>
+        <v>238858685</v>
       </c>
       <c r="D24" t="n">
-        <v>4278611</v>
+        <v>3861988</v>
       </c>
       <c r="E24" t="n">
-        <v>337450822</v>
+        <v>322782537</v>
       </c>
       <c r="F24" t="n">
-        <v>2850016</v>
+        <v>2714775</v>
       </c>
       <c r="G24" t="n">
-        <v>2173606</v>
+        <v>2123235</v>
       </c>
       <c r="H24" t="n">
-        <v>118772695</v>
+        <v>114324864</v>
       </c>
       <c r="I24" t="n">
-        <v>2554999</v>
+        <v>2383733</v>
       </c>
     </row>
     <row r="25">
@@ -1247,29 +1247,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2014-12</t>
+          <t>2014-11</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>263423387</v>
+        <v>250089267</v>
       </c>
       <c r="D25" t="n">
-        <v>4767950</v>
+        <v>4278611</v>
       </c>
       <c r="E25" t="n">
-        <v>353439799</v>
+        <v>337450822</v>
       </c>
       <c r="F25" t="n">
-        <v>2999905</v>
+        <v>2850016</v>
       </c>
       <c r="G25" t="n">
-        <v>2209180</v>
+        <v>2173606</v>
       </c>
       <c r="H25" t="n">
-        <v>123290689</v>
+        <v>118772695</v>
       </c>
       <c r="I25" t="n">
-        <v>2725677</v>
+        <v>2554999</v>
       </c>
     </row>
     <row r="26">
@@ -1280,29 +1280,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2015-1</t>
+          <t>2014-12</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>277613094</v>
+        <v>263423387</v>
       </c>
       <c r="D26" t="n">
-        <v>5269060</v>
+        <v>4767950</v>
       </c>
       <c r="E26" t="n">
-        <v>372666378</v>
+        <v>353439799</v>
       </c>
       <c r="F26" t="n">
-        <v>3141328</v>
+        <v>2999905</v>
       </c>
       <c r="G26" t="n">
-        <v>2258702</v>
+        <v>2209180</v>
       </c>
       <c r="H26" t="n">
-        <v>128587067</v>
+        <v>123290689</v>
       </c>
       <c r="I26" t="n">
-        <v>2872583</v>
+        <v>2725677</v>
       </c>
     </row>
     <row r="27">
@@ -1313,29 +1313,29 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2015-2</t>
+          <t>2014</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>290943867</v>
+        <v>4283033950</v>
       </c>
       <c r="D27" t="n">
-        <v>5917015</v>
+        <v>84048537</v>
       </c>
       <c r="E27" t="n">
-        <v>389568265</v>
+        <v>5681459325</v>
       </c>
       <c r="F27" t="n">
-        <v>3273639</v>
+        <v>46589257</v>
       </c>
       <c r="G27" t="n">
-        <v>2324834</v>
+        <v>31533406</v>
       </c>
       <c r="H27" t="n">
-        <v>134154276</v>
+        <v>2079297534</v>
       </c>
       <c r="I27" t="n">
-        <v>3002593</v>
+        <v>38016912</v>
       </c>
     </row>
     <row r="28">
@@ -1346,29 +1346,29 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2015-3</t>
+          <t>2015-1</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>303612744</v>
+        <v>277613094</v>
       </c>
       <c r="D28" t="n">
-        <v>6429126</v>
+        <v>5269060</v>
       </c>
       <c r="E28" t="n">
-        <v>406046662</v>
+        <v>372666378</v>
       </c>
       <c r="F28" t="n">
-        <v>3423623</v>
+        <v>3141328</v>
       </c>
       <c r="G28" t="n">
-        <v>2440026</v>
+        <v>2258702</v>
       </c>
       <c r="H28" t="n">
-        <v>139603932</v>
+        <v>128587067</v>
       </c>
       <c r="I28" t="n">
-        <v>3150747</v>
+        <v>2872583</v>
       </c>
     </row>
     <row r="29">
@@ -1379,29 +1379,29 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2015-4</t>
+          <t>2015-2</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>314115468</v>
+        <v>290943867</v>
       </c>
       <c r="D29" t="n">
-        <v>6689401</v>
+        <v>5917015</v>
       </c>
       <c r="E29" t="n">
-        <v>420589804</v>
+        <v>389568265</v>
       </c>
       <c r="F29" t="n">
-        <v>3556185</v>
+        <v>3273639</v>
       </c>
       <c r="G29" t="n">
-        <v>2603604</v>
+        <v>2324834</v>
       </c>
       <c r="H29" t="n">
-        <v>144559690</v>
+        <v>134154276</v>
       </c>
       <c r="I29" t="n">
-        <v>3274352</v>
+        <v>3002593</v>
       </c>
     </row>
     <row r="30">
@@ -1412,29 +1412,29 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2015-5</t>
+          <t>2015-3</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>323728820</v>
+        <v>303612744</v>
       </c>
       <c r="D30" t="n">
-        <v>6758236</v>
+        <v>6429126</v>
       </c>
       <c r="E30" t="n">
-        <v>434503251</v>
+        <v>406046662</v>
       </c>
       <c r="F30" t="n">
-        <v>3728849</v>
+        <v>3423623</v>
       </c>
       <c r="G30" t="n">
-        <v>2787024</v>
+        <v>2440026</v>
       </c>
       <c r="H30" t="n">
-        <v>150353105</v>
+        <v>139603932</v>
       </c>
       <c r="I30" t="n">
-        <v>3404632</v>
+        <v>3150747</v>
       </c>
     </row>
     <row r="31">
@@ -1445,29 +1445,29 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2015-6</t>
+          <t>2015-4</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>333340682</v>
+        <v>314115468</v>
       </c>
       <c r="D31" t="n">
-        <v>6849521</v>
+        <v>6689401</v>
       </c>
       <c r="E31" t="n">
-        <v>448895535</v>
+        <v>420589804</v>
       </c>
       <c r="F31" t="n">
-        <v>3817481</v>
+        <v>3556185</v>
       </c>
       <c r="G31" t="n">
-        <v>2989615</v>
+        <v>2603604</v>
       </c>
       <c r="H31" t="n">
-        <v>155539263</v>
+        <v>144559690</v>
       </c>
       <c r="I31" t="n">
-        <v>3522257</v>
+        <v>3274352</v>
       </c>
     </row>
     <row r="32">
@@ -1478,29 +1478,29 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2015-7</t>
+          <t>2015-5</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>343486528</v>
+        <v>323728820</v>
       </c>
       <c r="D32" t="n">
-        <v>7083546</v>
+        <v>6758236</v>
       </c>
       <c r="E32" t="n">
-        <v>463690675</v>
+        <v>434503251</v>
       </c>
       <c r="F32" t="n">
-        <v>3931737</v>
+        <v>3728849</v>
       </c>
       <c r="G32" t="n">
-        <v>3202484</v>
+        <v>2787024</v>
       </c>
       <c r="H32" t="n">
-        <v>159425886</v>
+        <v>150353105</v>
       </c>
       <c r="I32" t="n">
-        <v>3662469</v>
+        <v>3404632</v>
       </c>
     </row>
     <row r="33">
@@ -1511,29 +1511,29 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2015-8</t>
+          <t>2015-6</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>352367631</v>
+        <v>333340682</v>
       </c>
       <c r="D33" t="n">
-        <v>7166359</v>
+        <v>6849521</v>
       </c>
       <c r="E33" t="n">
-        <v>479377091</v>
+        <v>448895535</v>
       </c>
       <c r="F33" t="n">
-        <v>4042418</v>
+        <v>3817481</v>
       </c>
       <c r="G33" t="n">
-        <v>3385788</v>
+        <v>2989615</v>
       </c>
       <c r="H33" t="n">
-        <v>162605133</v>
+        <v>155539263</v>
       </c>
       <c r="I33" t="n">
-        <v>3799545</v>
+        <v>3522257</v>
       </c>
     </row>
     <row r="34">
@@ -1544,29 +1544,29 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2015-9</t>
+          <t>2015-7</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>361877345</v>
+        <v>343486528</v>
       </c>
       <c r="D34" t="n">
-        <v>7396925</v>
+        <v>7083546</v>
       </c>
       <c r="E34" t="n">
-        <v>491708273</v>
+        <v>463690675</v>
       </c>
       <c r="F34" t="n">
-        <v>4184342</v>
+        <v>3931737</v>
       </c>
       <c r="G34" t="n">
-        <v>3532586</v>
+        <v>3202484</v>
       </c>
       <c r="H34" t="n">
-        <v>165636547</v>
+        <v>159425886</v>
       </c>
       <c r="I34" t="n">
-        <v>3940582</v>
+        <v>3662469</v>
       </c>
     </row>
     <row r="35">
@@ -1577,29 +1577,29 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2015-10</t>
+          <t>2015-8</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>373001543</v>
+        <v>352367631</v>
       </c>
       <c r="D35" t="n">
-        <v>7758200</v>
+        <v>7166359</v>
       </c>
       <c r="E35" t="n">
-        <v>504972620</v>
+        <v>479377091</v>
       </c>
       <c r="F35" t="n">
-        <v>4309403</v>
+        <v>4042418</v>
       </c>
       <c r="G35" t="n">
-        <v>3630389</v>
+        <v>3385788</v>
       </c>
       <c r="H35" t="n">
-        <v>169209516</v>
+        <v>162605133</v>
       </c>
       <c r="I35" t="n">
-        <v>4064987</v>
+        <v>3799545</v>
       </c>
     </row>
     <row r="36">
@@ -1610,29 +1610,29 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2015-11</t>
+          <t>2015-9</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>384546567</v>
+        <v>361877345</v>
       </c>
       <c r="D36" t="n">
-        <v>8357991</v>
+        <v>7396925</v>
       </c>
       <c r="E36" t="n">
-        <v>519347997</v>
+        <v>491708273</v>
       </c>
       <c r="F36" t="n">
-        <v>4459624</v>
+        <v>4184342</v>
       </c>
       <c r="G36" t="n">
-        <v>3710511</v>
+        <v>3532586</v>
       </c>
       <c r="H36" t="n">
-        <v>172317540</v>
+        <v>165636547</v>
       </c>
       <c r="I36" t="n">
-        <v>4238373</v>
+        <v>3940582</v>
       </c>
     </row>
     <row r="37">
@@ -1643,29 +1643,29 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2015-12</t>
+          <t>2015-10</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>396977865</v>
+        <v>373001543</v>
       </c>
       <c r="D37" t="n">
-        <v>8871024</v>
+        <v>7758200</v>
       </c>
       <c r="E37" t="n">
-        <v>535093490</v>
+        <v>504972620</v>
       </c>
       <c r="F37" t="n">
-        <v>4598991</v>
+        <v>4309403</v>
       </c>
       <c r="G37" t="n">
-        <v>3777914</v>
+        <v>3630389</v>
       </c>
       <c r="H37" t="n">
-        <v>175691998</v>
+        <v>169209516</v>
       </c>
       <c r="I37" t="n">
-        <v>4417693</v>
+        <v>4064987</v>
       </c>
     </row>
     <row r="38">
@@ -1676,29 +1676,29 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2016-1</t>
+          <t>2015-11</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>410762014</v>
+        <v>384546567</v>
       </c>
       <c r="D38" t="n">
-        <v>9533546</v>
+        <v>8357991</v>
       </c>
       <c r="E38" t="n">
-        <v>552620192</v>
+        <v>519347997</v>
       </c>
       <c r="F38" t="n">
-        <v>4768991</v>
+        <v>4459624</v>
       </c>
       <c r="G38" t="n">
-        <v>3830830</v>
+        <v>3710511</v>
       </c>
       <c r="H38" t="n">
-        <v>180893794</v>
+        <v>172317540</v>
       </c>
       <c r="I38" t="n">
-        <v>4600366</v>
+        <v>4238373</v>
       </c>
     </row>
     <row r="39">
@@ -1709,29 +1709,29 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2016-2</t>
+          <t>2015-12</t>
         </is>
       </c>
       <c r="C39" t="n">
-        <v>423686157</v>
+        <v>396977865</v>
       </c>
       <c r="D39" t="n">
-        <v>9978124</v>
+        <v>8871024</v>
       </c>
       <c r="E39" t="n">
-        <v>569039396</v>
+        <v>535093490</v>
       </c>
       <c r="F39" t="n">
-        <v>4949686</v>
+        <v>4598991</v>
       </c>
       <c r="G39" t="n">
-        <v>3897457</v>
+        <v>3777914</v>
       </c>
       <c r="H39" t="n">
-        <v>187005280</v>
+        <v>175691998</v>
       </c>
       <c r="I39" t="n">
-        <v>4772237</v>
+        <v>4417693</v>
       </c>
     </row>
     <row r="40">
@@ -1742,29 +1742,29 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2016-3</t>
+          <t>2015</t>
         </is>
       </c>
       <c r="C40" t="n">
-        <v>436948296</v>
+        <v>12621680054</v>
       </c>
       <c r="D40" t="n">
-        <v>10523330</v>
+        <v>252643478</v>
       </c>
       <c r="E40" t="n">
-        <v>584304597</v>
+        <v>16829378691</v>
       </c>
       <c r="F40" t="n">
-        <v>5130621</v>
+        <v>139646134</v>
       </c>
       <c r="G40" t="n">
-        <v>4024434</v>
+        <v>99710289</v>
       </c>
       <c r="H40" t="n">
-        <v>192360486</v>
+        <v>6016279021</v>
       </c>
       <c r="I40" t="n">
-        <v>4956164</v>
+        <v>119384637</v>
       </c>
     </row>
     <row r="41">
@@ -1775,29 +1775,29 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2016-4</t>
+          <t>2016-1</t>
         </is>
       </c>
       <c r="C41" t="n">
-        <v>447770042</v>
+        <v>410762014</v>
       </c>
       <c r="D41" t="n">
-        <v>10684206</v>
+        <v>9533546</v>
       </c>
       <c r="E41" t="n">
-        <v>597512894</v>
+        <v>552620192</v>
       </c>
       <c r="F41" t="n">
-        <v>5299552</v>
+        <v>4768991</v>
       </c>
       <c r="G41" t="n">
-        <v>4175475</v>
+        <v>3830830</v>
       </c>
       <c r="H41" t="n">
-        <v>197752562</v>
+        <v>180893794</v>
       </c>
       <c r="I41" t="n">
-        <v>5113669</v>
+        <v>4600366</v>
       </c>
     </row>
     <row r="42">
@@ -1808,29 +1808,29 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2016-5</t>
+          <t>2016-2</t>
         </is>
       </c>
       <c r="C42" t="n">
-        <v>457691476</v>
+        <v>423686157</v>
       </c>
       <c r="D42" t="n">
-        <v>10812138</v>
+        <v>9978124</v>
       </c>
       <c r="E42" t="n">
-        <v>610813138</v>
+        <v>569039396</v>
       </c>
       <c r="F42" t="n">
-        <v>5493285</v>
+        <v>4949686</v>
       </c>
       <c r="G42" t="n">
-        <v>4356415</v>
+        <v>3897457</v>
       </c>
       <c r="H42" t="n">
-        <v>203366494</v>
+        <v>187005280</v>
       </c>
       <c r="I42" t="n">
-        <v>5256891</v>
+        <v>4772237</v>
       </c>
     </row>
     <row r="43">
@@ -1841,29 +1841,29 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2016-6</t>
+          <t>2016-3</t>
         </is>
       </c>
       <c r="C43" t="n">
-        <v>467015888</v>
+        <v>436948296</v>
       </c>
       <c r="D43" t="n">
-        <v>10999306</v>
+        <v>10523330</v>
       </c>
       <c r="E43" t="n">
-        <v>620917141</v>
+        <v>584304597</v>
       </c>
       <c r="F43" t="n">
-        <v>5584704</v>
+        <v>5130621</v>
       </c>
       <c r="G43" t="n">
-        <v>4544806</v>
+        <v>4024434</v>
       </c>
       <c r="H43" t="n">
-        <v>209867892</v>
+        <v>192360486</v>
       </c>
       <c r="I43" t="n">
-        <v>5401085</v>
+        <v>4956164</v>
       </c>
     </row>
     <row r="44">
@@ -1874,29 +1874,29 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2016-7</t>
+          <t>2016-4</t>
         </is>
       </c>
       <c r="C44" t="n">
-        <v>476618455</v>
+        <v>447770042</v>
       </c>
       <c r="D44" t="n">
-        <v>11225467</v>
+        <v>10684206</v>
       </c>
       <c r="E44" t="n">
-        <v>631343550</v>
+        <v>597512894</v>
       </c>
       <c r="F44" t="n">
-        <v>5692313</v>
+        <v>5299552</v>
       </c>
       <c r="G44" t="n">
-        <v>4759049</v>
+        <v>4175475</v>
       </c>
       <c r="H44" t="n">
-        <v>215074337</v>
+        <v>197752562</v>
       </c>
       <c r="I44" t="n">
-        <v>5553770</v>
+        <v>5113669</v>
       </c>
     </row>
     <row r="45">
@@ -1907,29 +1907,29 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2016-8</t>
+          <t>2016-5</t>
         </is>
       </c>
       <c r="C45" t="n">
-        <v>485456910</v>
+        <v>457691476</v>
       </c>
       <c r="D45" t="n">
-        <v>11396642</v>
+        <v>10812138</v>
       </c>
       <c r="E45" t="n">
-        <v>640659647</v>
+        <v>610813138</v>
       </c>
       <c r="F45" t="n">
-        <v>5794013</v>
+        <v>5493285</v>
       </c>
       <c r="G45" t="n">
-        <v>4973683</v>
+        <v>4356415</v>
       </c>
       <c r="H45" t="n">
-        <v>218666080</v>
+        <v>203366494</v>
       </c>
       <c r="I45" t="n">
-        <v>5714201</v>
+        <v>5256891</v>
       </c>
     </row>
     <row r="46">
@@ -1940,29 +1940,29 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2016-9</t>
+          <t>2016-6</t>
         </is>
       </c>
       <c r="C46" t="n">
-        <v>494848953</v>
+        <v>467015888</v>
       </c>
       <c r="D46" t="n">
-        <v>11730087</v>
+        <v>10999306</v>
       </c>
       <c r="E46" t="n">
-        <v>650375256</v>
+        <v>620917141</v>
       </c>
       <c r="F46" t="n">
-        <v>5895115</v>
+        <v>5584704</v>
       </c>
       <c r="G46" t="n">
-        <v>5135979</v>
+        <v>4544806</v>
       </c>
       <c r="H46" t="n">
-        <v>221698339</v>
+        <v>209867892</v>
       </c>
       <c r="I46" t="n">
-        <v>5854993</v>
+        <v>5401085</v>
       </c>
     </row>
     <row r="47">
@@ -1973,29 +1973,29 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2016-10</t>
+          <t>2016-7</t>
         </is>
       </c>
       <c r="C47" t="n">
-        <v>505710376</v>
+        <v>476618455</v>
       </c>
       <c r="D47" t="n">
-        <v>12343613</v>
+        <v>11225467</v>
       </c>
       <c r="E47" t="n">
-        <v>661897665</v>
+        <v>631343550</v>
       </c>
       <c r="F47" t="n">
-        <v>6024026</v>
+        <v>5692313</v>
       </c>
       <c r="G47" t="n">
-        <v>5280015</v>
+        <v>4759049</v>
       </c>
       <c r="H47" t="n">
-        <v>224546367</v>
+        <v>215074337</v>
       </c>
       <c r="I47" t="n">
-        <v>5982308</v>
+        <v>5553770</v>
       </c>
     </row>
     <row r="48">
@@ -2006,29 +2006,29 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2016-11</t>
+          <t>2016-8</t>
         </is>
       </c>
       <c r="C48" t="n">
-        <v>517853400</v>
+        <v>485456910</v>
       </c>
       <c r="D48" t="n">
-        <v>13178025</v>
+        <v>11396642</v>
       </c>
       <c r="E48" t="n">
-        <v>672026306</v>
+        <v>640659647</v>
       </c>
       <c r="F48" t="n">
-        <v>6192946</v>
+        <v>5794013</v>
       </c>
       <c r="G48" t="n">
-        <v>5346039</v>
+        <v>4973683</v>
       </c>
       <c r="H48" t="n">
-        <v>228476206</v>
+        <v>218666080</v>
       </c>
       <c r="I48" t="n">
-        <v>6168223</v>
+        <v>5714201</v>
       </c>
     </row>
     <row r="49">
@@ -2039,29 +2039,29 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2016-12</t>
+          <t>2016-9</t>
         </is>
       </c>
       <c r="C49" t="n">
-        <v>532070942</v>
+        <v>494848953</v>
       </c>
       <c r="D49" t="n">
-        <v>14112689</v>
+        <v>11730087</v>
       </c>
       <c r="E49" t="n">
-        <v>684954811</v>
+        <v>650375256</v>
       </c>
       <c r="F49" t="n">
-        <v>6314606</v>
+        <v>5895115</v>
       </c>
       <c r="G49" t="n">
-        <v>5420416</v>
+        <v>5135979</v>
       </c>
       <c r="H49" t="n">
-        <v>232253694</v>
+        <v>221698339</v>
       </c>
       <c r="I49" t="n">
-        <v>6359524</v>
+        <v>5854993</v>
       </c>
     </row>
     <row r="50">
@@ -2072,29 +2072,29 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2017-1</t>
+          <t>2016-10</t>
         </is>
       </c>
       <c r="C50" t="n">
-        <v>548054762</v>
+        <v>505710376</v>
       </c>
       <c r="D50" t="n">
-        <v>14940287</v>
+        <v>12343613</v>
       </c>
       <c r="E50" t="n">
-        <v>701329773</v>
+        <v>661897665</v>
       </c>
       <c r="F50" t="n">
-        <v>6491022</v>
+        <v>6024026</v>
       </c>
       <c r="G50" t="n">
-        <v>5482350</v>
+        <v>5280015</v>
       </c>
       <c r="H50" t="n">
-        <v>236665759</v>
+        <v>224546367</v>
       </c>
       <c r="I50" t="n">
-        <v>6532482</v>
+        <v>5982308</v>
       </c>
     </row>
     <row r="51">
@@ -2105,29 +2105,29 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2017-2</t>
+          <t>2016-11</t>
         </is>
       </c>
       <c r="C51" t="n">
-        <v>560186511</v>
+        <v>517853400</v>
       </c>
       <c r="D51" t="n">
-        <v>15634376</v>
+        <v>13178025</v>
       </c>
       <c r="E51" t="n">
-        <v>715850529</v>
+        <v>672026306</v>
       </c>
       <c r="F51" t="n">
-        <v>6693249</v>
+        <v>6192946</v>
       </c>
       <c r="G51" t="n">
-        <v>5570722</v>
+        <v>5346039</v>
       </c>
       <c r="H51" t="n">
-        <v>240422828</v>
+        <v>228476206</v>
       </c>
       <c r="I51" t="n">
-        <v>6688114</v>
+        <v>6168223</v>
       </c>
     </row>
     <row r="52">
@@ -2138,29 +2138,29 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2017-3</t>
+          <t>2016-12</t>
         </is>
       </c>
       <c r="C52" t="n">
-        <v>572104280</v>
+        <v>532070942</v>
       </c>
       <c r="D52" t="n">
-        <v>16221805</v>
+        <v>14112689</v>
       </c>
       <c r="E52" t="n">
-        <v>731738151</v>
+        <v>684954811</v>
       </c>
       <c r="F52" t="n">
-        <v>6872760</v>
+        <v>6314606</v>
       </c>
       <c r="G52" t="n">
-        <v>5711743</v>
+        <v>5420416</v>
       </c>
       <c r="H52" t="n">
-        <v>245760321</v>
+        <v>232253694</v>
       </c>
       <c r="I52" t="n">
-        <v>6862196</v>
+        <v>6359524</v>
       </c>
     </row>
     <row r="53">
@@ -2171,29 +2171,29 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2017-4</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="C53" t="n">
-        <v>582421720</v>
+        <v>30899793017</v>
       </c>
       <c r="D53" t="n">
-        <v>16535259</v>
+        <v>641804129</v>
       </c>
       <c r="E53" t="n">
-        <v>745972058</v>
+        <v>41135221975</v>
       </c>
       <c r="F53" t="n">
-        <v>7055760</v>
+        <v>346432126</v>
       </c>
       <c r="G53" t="n">
-        <v>5913277</v>
+        <v>255165176</v>
       </c>
       <c r="H53" t="n">
-        <v>249144320</v>
+        <v>14544519573</v>
       </c>
       <c r="I53" t="n">
-        <v>6993045</v>
+        <v>304502705</v>
       </c>
     </row>
     <row r="54">
@@ -2204,29 +2204,29 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2017-5</t>
+          <t>2017-1</t>
         </is>
       </c>
       <c r="C54" t="n">
-        <v>592405744</v>
+        <v>548054762</v>
       </c>
       <c r="D54" t="n">
-        <v>16787667</v>
+        <v>14940287</v>
       </c>
       <c r="E54" t="n">
-        <v>757514972</v>
+        <v>701329773</v>
       </c>
       <c r="F54" t="n">
-        <v>7205092</v>
+        <v>6491022</v>
       </c>
       <c r="G54" t="n">
-        <v>6125128</v>
+        <v>5482350</v>
       </c>
       <c r="H54" t="n">
-        <v>254029211</v>
+        <v>236665759</v>
       </c>
       <c r="I54" t="n">
-        <v>7118002</v>
+        <v>6532482</v>
       </c>
     </row>
     <row r="55">
@@ -2237,29 +2237,29 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2017-6</t>
+          <t>2017-2</t>
         </is>
       </c>
       <c r="C55" t="n">
-        <v>601930170</v>
+        <v>560186511</v>
       </c>
       <c r="D55" t="n">
-        <v>16840555</v>
+        <v>15634376</v>
       </c>
       <c r="E55" t="n">
-        <v>768260686</v>
+        <v>715850529</v>
       </c>
       <c r="F55" t="n">
-        <v>7318918</v>
+        <v>6693249</v>
       </c>
       <c r="G55" t="n">
-        <v>6350165</v>
+        <v>5570722</v>
       </c>
       <c r="H55" t="n">
-        <v>258906260</v>
+        <v>240422828</v>
       </c>
       <c r="I55" t="n">
-        <v>7248054</v>
+        <v>6688114</v>
       </c>
     </row>
     <row r="56">
@@ -2270,29 +2270,29 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2017-7</t>
+          <t>2017-3</t>
         </is>
       </c>
       <c r="C56" t="n">
-        <v>611647160</v>
+        <v>572104280</v>
       </c>
       <c r="D56" t="n">
-        <v>16884877</v>
+        <v>16221805</v>
       </c>
       <c r="E56" t="n">
-        <v>781434151</v>
+        <v>731738151</v>
       </c>
       <c r="F56" t="n">
-        <v>7457602</v>
+        <v>6872760</v>
       </c>
       <c r="G56" t="n">
-        <v>6566875</v>
+        <v>5711743</v>
       </c>
       <c r="H56" t="n">
-        <v>262614628</v>
+        <v>245760321</v>
       </c>
       <c r="I56" t="n">
-        <v>7413261</v>
+        <v>6862196</v>
       </c>
     </row>
     <row r="57">
@@ -2303,29 +2303,29 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2017-8</t>
+          <t>2017-4</t>
         </is>
       </c>
       <c r="C57" t="n">
-        <v>620649654</v>
+        <v>582421720</v>
       </c>
       <c r="D57" t="n">
-        <v>16980443</v>
+        <v>16535259</v>
       </c>
       <c r="E57" t="n">
-        <v>795779559</v>
+        <v>745972058</v>
       </c>
       <c r="F57" t="n">
-        <v>7568068</v>
+        <v>7055760</v>
       </c>
       <c r="G57" t="n">
-        <v>6777324</v>
+        <v>5913277</v>
       </c>
       <c r="H57" t="n">
-        <v>265877807</v>
+        <v>249144320</v>
       </c>
       <c r="I57" t="n">
-        <v>7557999</v>
+        <v>6993045</v>
       </c>
     </row>
     <row r="58">
@@ -2336,29 +2336,29 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2017-9</t>
+          <t>2017-5</t>
         </is>
       </c>
       <c r="C58" t="n">
-        <v>630171710</v>
+        <v>592405744</v>
       </c>
       <c r="D58" t="n">
-        <v>17162832</v>
+        <v>16787667</v>
       </c>
       <c r="E58" t="n">
-        <v>812272029</v>
+        <v>757514972</v>
       </c>
       <c r="F58" t="n">
-        <v>7678001</v>
+        <v>7205092</v>
       </c>
       <c r="G58" t="n">
-        <v>6934570</v>
+        <v>6125128</v>
       </c>
       <c r="H58" t="n">
-        <v>268444360</v>
+        <v>254029211</v>
       </c>
       <c r="I58" t="n">
-        <v>7691412</v>
+        <v>7118002</v>
       </c>
     </row>
     <row r="59">
@@ -2369,29 +2369,29 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2017-10</t>
+          <t>2017-6</t>
         </is>
       </c>
       <c r="C59" t="n">
-        <v>640437385</v>
+        <v>601930170</v>
       </c>
       <c r="D59" t="n">
-        <v>17679520</v>
+        <v>16840555</v>
       </c>
       <c r="E59" t="n">
-        <v>823423909</v>
+        <v>768260686</v>
       </c>
       <c r="F59" t="n">
-        <v>7850617</v>
+        <v>7318918</v>
       </c>
       <c r="G59" t="n">
-        <v>7078353</v>
+        <v>6350165</v>
       </c>
       <c r="H59" t="n">
-        <v>270706384</v>
+        <v>258906260</v>
       </c>
       <c r="I59" t="n">
-        <v>7848230</v>
+        <v>7248054</v>
       </c>
     </row>
     <row r="60">
@@ -2402,29 +2402,29 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2017-11</t>
+          <t>2017-7</t>
         </is>
       </c>
       <c r="C60" t="n">
-        <v>653055270</v>
+        <v>611647160</v>
       </c>
       <c r="D60" t="n">
-        <v>18385023</v>
+        <v>16884877</v>
       </c>
       <c r="E60" t="n">
-        <v>831976057</v>
+        <v>781434151</v>
       </c>
       <c r="F60" t="n">
-        <v>8073173</v>
+        <v>7457602</v>
       </c>
       <c r="G60" t="n">
-        <v>7154387</v>
+        <v>6566875</v>
       </c>
       <c r="H60" t="n">
-        <v>274195151</v>
+        <v>262614628</v>
       </c>
       <c r="I60" t="n">
-        <v>8037489</v>
+        <v>7413261</v>
       </c>
     </row>
     <row r="61">
@@ -2435,29 +2435,29 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2017-12</t>
+          <t>2017-8</t>
         </is>
       </c>
       <c r="C61" t="n">
-        <v>667464578</v>
+        <v>620649654</v>
       </c>
       <c r="D61" t="n">
-        <v>19018390</v>
+        <v>16980443</v>
       </c>
       <c r="E61" t="n">
-        <v>844846847</v>
+        <v>795779559</v>
       </c>
       <c r="F61" t="n">
-        <v>8331029</v>
+        <v>7568068</v>
       </c>
       <c r="G61" t="n">
-        <v>7196647</v>
+        <v>6777324</v>
       </c>
       <c r="H61" t="n">
-        <v>278901560</v>
+        <v>265877807</v>
       </c>
       <c r="I61" t="n">
-        <v>8236709</v>
+        <v>7557999</v>
       </c>
     </row>
     <row r="62">
@@ -2468,29 +2468,29 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2018-1</t>
+          <t>2017-9</t>
         </is>
       </c>
       <c r="C62" t="n">
-        <v>680941100</v>
+        <v>630171710</v>
       </c>
       <c r="D62" t="n">
-        <v>19391320</v>
+        <v>17162832</v>
       </c>
       <c r="E62" t="n">
-        <v>861862401</v>
+        <v>812272029</v>
       </c>
       <c r="F62" t="n">
-        <v>8610574</v>
+        <v>7678001</v>
       </c>
       <c r="G62" t="n">
-        <v>7240605</v>
+        <v>6934570</v>
       </c>
       <c r="H62" t="n">
-        <v>284852463</v>
+        <v>268444360</v>
       </c>
       <c r="I62" t="n">
-        <v>8433868</v>
+        <v>7691412</v>
       </c>
     </row>
     <row r="63">
@@ -2501,29 +2501,29 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2018-2</t>
+          <t>2017-10</t>
         </is>
       </c>
       <c r="C63" t="n">
-        <v>694704753</v>
+        <v>640437385</v>
       </c>
       <c r="D63" t="n">
-        <v>19981399</v>
+        <v>17679520</v>
       </c>
       <c r="E63" t="n">
-        <v>876093624</v>
+        <v>823423909</v>
       </c>
       <c r="F63" t="n">
-        <v>8785299</v>
+        <v>7850617</v>
       </c>
       <c r="G63" t="n">
-        <v>7322003</v>
+        <v>7078353</v>
       </c>
       <c r="H63" t="n">
-        <v>290643992</v>
+        <v>270706384</v>
       </c>
       <c r="I63" t="n">
-        <v>8613120</v>
+        <v>7848230</v>
       </c>
     </row>
     <row r="64">
@@ -2534,29 +2534,29 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2018-3</t>
+          <t>2017-11</t>
         </is>
       </c>
       <c r="C64" t="n">
-        <v>708162250</v>
+        <v>653055270</v>
       </c>
       <c r="D64" t="n">
-        <v>20395777</v>
+        <v>18385023</v>
       </c>
       <c r="E64" t="n">
-        <v>890619788</v>
+        <v>831976057</v>
       </c>
       <c r="F64" t="n">
-        <v>9029843</v>
+        <v>8073173</v>
       </c>
       <c r="G64" t="n">
-        <v>7466265</v>
+        <v>7154387</v>
       </c>
       <c r="H64" t="n">
-        <v>296270882</v>
+        <v>274195151</v>
       </c>
       <c r="I64" t="n">
-        <v>8799017</v>
+        <v>8037489</v>
       </c>
     </row>
     <row r="65">
@@ -2567,29 +2567,29 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2018-4</t>
+          <t>2017-12</t>
         </is>
       </c>
       <c r="C65" t="n">
-        <v>718417716</v>
+        <v>667464578</v>
       </c>
       <c r="D65" t="n">
-        <v>20425636</v>
+        <v>19018390</v>
       </c>
       <c r="E65" t="n">
-        <v>903293528</v>
+        <v>844846847</v>
       </c>
       <c r="F65" t="n">
-        <v>9235134</v>
+        <v>8331029</v>
       </c>
       <c r="G65" t="n">
-        <v>7669973</v>
+        <v>7196647</v>
       </c>
       <c r="H65" t="n">
-        <v>301838796</v>
+        <v>278901560</v>
       </c>
       <c r="I65" t="n">
-        <v>8954175</v>
+        <v>8236709</v>
       </c>
     </row>
     <row r="66">
@@ -2600,29 +2600,29 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2018-5</t>
+          <t>2017</t>
         </is>
       </c>
       <c r="C66" t="n">
-        <v>728151627</v>
+        <v>69080114978</v>
       </c>
       <c r="D66" t="n">
-        <v>20454366</v>
+        <v>1486679292</v>
       </c>
       <c r="E66" t="n">
-        <v>916063835</v>
+        <v>91580842671</v>
       </c>
       <c r="F66" t="n">
-        <v>9369069</v>
+        <v>781459543</v>
       </c>
       <c r="G66" t="n">
-        <v>7882216</v>
+        <v>587191893</v>
       </c>
       <c r="H66" t="n">
-        <v>308720120</v>
+        <v>32194707735</v>
       </c>
       <c r="I66" t="n">
-        <v>9134090</v>
+        <v>697232403</v>
       </c>
     </row>
     <row r="67">
@@ -2633,29 +2633,29 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2018-6</t>
+          <t>2018-1</t>
         </is>
       </c>
       <c r="C67" t="n">
-        <v>737557995</v>
+        <v>680941100</v>
       </c>
       <c r="D67" t="n">
-        <v>20484213</v>
+        <v>19391320</v>
       </c>
       <c r="E67" t="n">
-        <v>928349862</v>
+        <v>861862401</v>
       </c>
       <c r="F67" t="n">
-        <v>9492320</v>
+        <v>8610574</v>
       </c>
       <c r="G67" t="n">
-        <v>8151368</v>
+        <v>7240605</v>
       </c>
       <c r="H67" t="n">
-        <v>315537116</v>
+        <v>284852463</v>
       </c>
       <c r="I67" t="n">
-        <v>9299267</v>
+        <v>8433868</v>
       </c>
     </row>
     <row r="68">
@@ -2666,29 +2666,29 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2018-7</t>
+          <t>2018-2</t>
         </is>
       </c>
       <c r="C68" t="n">
-        <v>747511201</v>
+        <v>694704753</v>
       </c>
       <c r="D68" t="n">
-        <v>20530332</v>
+        <v>19981399</v>
       </c>
       <c r="E68" t="n">
-        <v>940239082</v>
+        <v>876093624</v>
       </c>
       <c r="F68" t="n">
-        <v>9589674</v>
+        <v>8785299</v>
       </c>
       <c r="G68" t="n">
-        <v>8445661</v>
+        <v>7322003</v>
       </c>
       <c r="H68" t="n">
-        <v>320765553</v>
+        <v>290643992</v>
       </c>
       <c r="I68" t="n">
-        <v>9466681</v>
+        <v>8613120</v>
       </c>
     </row>
     <row r="69">
@@ -2699,29 +2699,29 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2018-8</t>
+          <t>2018-3</t>
         </is>
       </c>
       <c r="C69" t="n">
-        <v>756615406</v>
+        <v>708162250</v>
       </c>
       <c r="D69" t="n">
-        <v>20651194</v>
+        <v>20395777</v>
       </c>
       <c r="E69" t="n">
-        <v>951815787</v>
+        <v>890619788</v>
       </c>
       <c r="F69" t="n">
-        <v>9718526</v>
+        <v>9029843</v>
       </c>
       <c r="G69" t="n">
-        <v>8712100</v>
+        <v>7466265</v>
       </c>
       <c r="H69" t="n">
-        <v>324967012</v>
+        <v>296270882</v>
       </c>
       <c r="I69" t="n">
-        <v>9626116</v>
+        <v>8799017</v>
       </c>
     </row>
     <row r="70">
@@ -2732,29 +2732,29 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2018-9</t>
+          <t>2018-4</t>
         </is>
       </c>
       <c r="C70" t="n">
-        <v>765904215</v>
+        <v>718417716</v>
       </c>
       <c r="D70" t="n">
-        <v>20763804</v>
+        <v>20425636</v>
       </c>
       <c r="E70" t="n">
-        <v>964377549</v>
+        <v>903293528</v>
       </c>
       <c r="F70" t="n">
-        <v>9833080</v>
+        <v>9235134</v>
       </c>
       <c r="G70" t="n">
-        <v>8953792</v>
+        <v>7669973</v>
       </c>
       <c r="H70" t="n">
-        <v>327729686</v>
+        <v>301838796</v>
       </c>
       <c r="I70" t="n">
-        <v>9783325</v>
+        <v>8954175</v>
       </c>
     </row>
     <row r="71">
@@ -2765,29 +2765,29 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2018-10</t>
+          <t>2018-5</t>
         </is>
       </c>
       <c r="C71" t="n">
-        <v>776373106</v>
+        <v>728151627</v>
       </c>
       <c r="D71" t="n">
-        <v>21097891</v>
+        <v>20454366</v>
       </c>
       <c r="E71" t="n">
-        <v>976650841</v>
+        <v>916063835</v>
       </c>
       <c r="F71" t="n">
-        <v>10057635</v>
+        <v>9369069</v>
       </c>
       <c r="G71" t="n">
-        <v>9123995</v>
+        <v>7882216</v>
       </c>
       <c r="H71" t="n">
-        <v>330248485</v>
+        <v>308720120</v>
       </c>
       <c r="I71" t="n">
-        <v>9958975</v>
+        <v>9134090</v>
       </c>
     </row>
     <row r="72">
@@ -2798,29 +2798,29 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2018-11</t>
+          <t>2018-6</t>
         </is>
       </c>
       <c r="C72" t="n">
-        <v>788232827</v>
+        <v>737557995</v>
       </c>
       <c r="D72" t="n">
-        <v>21744196</v>
+        <v>20484213</v>
       </c>
       <c r="E72" t="n">
-        <v>988495272</v>
+        <v>928349862</v>
       </c>
       <c r="F72" t="n">
-        <v>10253819</v>
+        <v>9492320</v>
       </c>
       <c r="G72" t="n">
-        <v>9217795</v>
+        <v>8151368</v>
       </c>
       <c r="H72" t="n">
-        <v>333532799</v>
+        <v>315537116</v>
       </c>
       <c r="I72" t="n">
-        <v>10149992</v>
+        <v>9299267</v>
       </c>
     </row>
     <row r="73">
@@ -2831,29 +2831,29 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2018-12</t>
+          <t>2018-7</t>
         </is>
       </c>
       <c r="C73" t="n">
-        <v>801532636</v>
+        <v>747511201</v>
       </c>
       <c r="D73" t="n">
-        <v>22236302</v>
+        <v>20530332</v>
       </c>
       <c r="E73" t="n">
-        <v>1005174600</v>
+        <v>940239082</v>
       </c>
       <c r="F73" t="n">
-        <v>10494093</v>
+        <v>9589674</v>
       </c>
       <c r="G73" t="n">
-        <v>9269205</v>
+        <v>8445661</v>
       </c>
       <c r="H73" t="n">
-        <v>338435116</v>
+        <v>320765553</v>
       </c>
       <c r="I73" t="n">
-        <v>10361442</v>
+        <v>9466681</v>
       </c>
     </row>
     <row r="74">
@@ -2864,29 +2864,29 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2019-1</t>
+          <t>2018-8</t>
         </is>
       </c>
       <c r="C74" t="n">
-        <v>816663217</v>
+        <v>756615406</v>
       </c>
       <c r="D74" t="n">
-        <v>23056220</v>
+        <v>20651194</v>
       </c>
       <c r="E74" t="n">
-        <v>1023237752</v>
+        <v>951815787</v>
       </c>
       <c r="F74" t="n">
-        <v>10722868</v>
+        <v>9718526</v>
       </c>
       <c r="G74" t="n">
-        <v>9346715</v>
+        <v>8712100</v>
       </c>
       <c r="H74" t="n">
-        <v>342967686</v>
+        <v>324967012</v>
       </c>
       <c r="I74" t="n">
-        <v>10564978</v>
+        <v>9626116</v>
       </c>
     </row>
     <row r="75">
@@ -2897,29 +2897,29 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2019-2</t>
+          <t>2018-9</t>
         </is>
       </c>
       <c r="C75" t="n">
-        <v>829042309</v>
+        <v>765904215</v>
       </c>
       <c r="D75" t="n">
-        <v>23577168</v>
+        <v>20763804</v>
       </c>
       <c r="E75" t="n">
-        <v>1039545127</v>
+        <v>964377549</v>
       </c>
       <c r="F75" t="n">
-        <v>10901971</v>
+        <v>9833080</v>
       </c>
       <c r="G75" t="n">
-        <v>9504161</v>
+        <v>8953792</v>
       </c>
       <c r="H75" t="n">
-        <v>347408270</v>
+        <v>327729686</v>
       </c>
       <c r="I75" t="n">
-        <v>10745519</v>
+        <v>9783325</v>
       </c>
     </row>
     <row r="76">
@@ -2930,29 +2930,29 @@
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2019-3</t>
+          <t>2018-10</t>
         </is>
       </c>
       <c r="C76" t="n">
-        <v>841124944</v>
+        <v>776373106</v>
       </c>
       <c r="D76" t="n">
-        <v>23906941</v>
+        <v>21097891</v>
       </c>
       <c r="E76" t="n">
-        <v>1054532943</v>
+        <v>976650841</v>
       </c>
       <c r="F76" t="n">
-        <v>11183393</v>
+        <v>10057635</v>
       </c>
       <c r="G76" t="n">
-        <v>9727903</v>
+        <v>9123995</v>
       </c>
       <c r="H76" t="n">
-        <v>352212638</v>
+        <v>330248485</v>
       </c>
       <c r="I76" t="n">
-        <v>10942603</v>
+        <v>9958975</v>
       </c>
     </row>
     <row r="77">
@@ -2963,29 +2963,29 @@
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2019-4</t>
+          <t>2018-11</t>
         </is>
       </c>
       <c r="C77" t="n">
-        <v>851655422</v>
+        <v>788232827</v>
       </c>
       <c r="D77" t="n">
-        <v>24017327</v>
+        <v>21744196</v>
       </c>
       <c r="E77" t="n">
-        <v>1066361367</v>
+        <v>988495272</v>
       </c>
       <c r="F77" t="n">
-        <v>11390466</v>
+        <v>10253819</v>
       </c>
       <c r="G77" t="n">
-        <v>9956694</v>
+        <v>9217795</v>
       </c>
       <c r="H77" t="n">
-        <v>356187426</v>
+        <v>333532799</v>
       </c>
       <c r="I77" t="n">
-        <v>11100816</v>
+        <v>10149992</v>
       </c>
     </row>
     <row r="78">
@@ -2996,29 +2996,29 @@
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2019-5</t>
+          <t>2018-12</t>
         </is>
       </c>
       <c r="C78" t="n">
-        <v>861743489</v>
+        <v>801532636</v>
       </c>
       <c r="D78" t="n">
-        <v>24106259</v>
+        <v>22236302</v>
       </c>
       <c r="E78" t="n">
-        <v>1079437724</v>
+        <v>1005174600</v>
       </c>
       <c r="F78" t="n">
-        <v>11630540</v>
+        <v>10494093</v>
       </c>
       <c r="G78" t="n">
-        <v>10235744</v>
+        <v>9269205</v>
       </c>
       <c r="H78" t="n">
-        <v>361188822</v>
+        <v>338435116</v>
       </c>
       <c r="I78" t="n">
-        <v>11286971</v>
+        <v>10361442</v>
       </c>
     </row>
     <row r="79">
@@ -3029,29 +3029,29 @@
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2019-6</t>
+          <t>2018</t>
         </is>
       </c>
       <c r="C79" t="n">
-        <v>870980757</v>
+        <v>147064334788</v>
       </c>
       <c r="D79" t="n">
-        <v>24272355</v>
+        <v>3221515014</v>
       </c>
       <c r="E79" t="n">
-        <v>1092621377</v>
+        <v>194364721511</v>
       </c>
       <c r="F79" t="n">
-        <v>11771391</v>
+        <v>1677388152</v>
       </c>
       <c r="G79" t="n">
-        <v>10535742</v>
+        <v>1273838764</v>
       </c>
       <c r="H79" t="n">
-        <v>366939964</v>
+        <v>68162957490</v>
       </c>
       <c r="I79" t="n">
-        <v>11433678</v>
+        <v>1507044874</v>
       </c>
     </row>
     <row r="80">
@@ -3062,29 +3062,29 @@
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2019-7</t>
+          <t>2019-1</t>
         </is>
       </c>
       <c r="C80" t="n">
-        <v>880802135</v>
+        <v>816663217</v>
       </c>
       <c r="D80" t="n">
-        <v>24507393</v>
+        <v>23056220</v>
       </c>
       <c r="E80" t="n">
-        <v>1107726574</v>
+        <v>1023237752</v>
       </c>
       <c r="F80" t="n">
-        <v>11888849</v>
+        <v>10722868</v>
       </c>
       <c r="G80" t="n">
-        <v>10866692</v>
+        <v>9346715</v>
       </c>
       <c r="H80" t="n">
-        <v>371523884</v>
+        <v>342967686</v>
       </c>
       <c r="I80" t="n">
-        <v>11600356</v>
+        <v>10564978</v>
       </c>
     </row>
     <row r="81">
@@ -3095,29 +3095,29 @@
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2019-8</t>
+          <t>2019-2</t>
         </is>
       </c>
       <c r="C81" t="n">
-        <v>889510127</v>
+        <v>829042309</v>
       </c>
       <c r="D81" t="n">
-        <v>24650245</v>
+        <v>23577168</v>
       </c>
       <c r="E81" t="n">
-        <v>1121610769</v>
+        <v>1039545127</v>
       </c>
       <c r="F81" t="n">
-        <v>12005371</v>
+        <v>10901971</v>
       </c>
       <c r="G81" t="n">
-        <v>11170215</v>
+        <v>9504161</v>
       </c>
       <c r="H81" t="n">
-        <v>375020844</v>
+        <v>347408270</v>
       </c>
       <c r="I81" t="n">
-        <v>11777317</v>
+        <v>10745519</v>
       </c>
     </row>
     <row r="82">
@@ -3128,29 +3128,29 @@
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2019-9</t>
+          <t>2019-3</t>
         </is>
       </c>
       <c r="C82" t="n">
-        <v>898551930</v>
+        <v>841124944</v>
       </c>
       <c r="D82" t="n">
-        <v>24980071</v>
+        <v>23906941</v>
       </c>
       <c r="E82" t="n">
-        <v>1135376766</v>
+        <v>1054532943</v>
       </c>
       <c r="F82" t="n">
-        <v>12156618</v>
+        <v>11183393</v>
       </c>
       <c r="G82" t="n">
-        <v>11427529</v>
+        <v>9727903</v>
       </c>
       <c r="H82" t="n">
-        <v>377249300</v>
+        <v>352212638</v>
       </c>
       <c r="I82" t="n">
-        <v>11939179</v>
+        <v>10942603</v>
       </c>
     </row>
     <row r="83">
@@ -3161,29 +3161,29 @@
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2019-10</t>
+          <t>2019-4</t>
         </is>
       </c>
       <c r="C83" t="n">
-        <v>908350723</v>
+        <v>851655422</v>
       </c>
       <c r="D83" t="n">
-        <v>25439284</v>
+        <v>24017327</v>
       </c>
       <c r="E83" t="n">
-        <v>1149880184</v>
+        <v>1066361367</v>
       </c>
       <c r="F83" t="n">
-        <v>12390777</v>
+        <v>11390466</v>
       </c>
       <c r="G83" t="n">
-        <v>11587718</v>
+        <v>9956694</v>
       </c>
       <c r="H83" t="n">
-        <v>380925892</v>
+        <v>356187426</v>
       </c>
       <c r="I83" t="n">
-        <v>12091477</v>
+        <v>11100816</v>
       </c>
     </row>
     <row r="84">
@@ -3194,29 +3194,29 @@
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2019-11</t>
+          <t>2019-5</t>
         </is>
       </c>
       <c r="C84" t="n">
-        <v>919942687</v>
+        <v>861743489</v>
       </c>
       <c r="D84" t="n">
-        <v>26113593</v>
+        <v>24106259</v>
       </c>
       <c r="E84" t="n">
-        <v>1161822476</v>
+        <v>1079437724</v>
       </c>
       <c r="F84" t="n">
-        <v>12604428</v>
+        <v>11630540</v>
       </c>
       <c r="G84" t="n">
-        <v>11680417</v>
+        <v>10235744</v>
       </c>
       <c r="H84" t="n">
-        <v>386549724</v>
+        <v>361188822</v>
       </c>
       <c r="I84" t="n">
-        <v>12276656</v>
+        <v>11286971</v>
       </c>
     </row>
     <row r="85">
@@ -3227,29 +3227,29 @@
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2019-12</t>
+          <t>2019-6</t>
         </is>
       </c>
       <c r="C85" t="n">
-        <v>932508702</v>
+        <v>870980757</v>
       </c>
       <c r="D85" t="n">
-        <v>26655982</v>
+        <v>24272355</v>
       </c>
       <c r="E85" t="n">
-        <v>1176740986</v>
+        <v>1092621377</v>
       </c>
       <c r="F85" t="n">
-        <v>12879498</v>
+        <v>11771391</v>
       </c>
       <c r="G85" t="n">
-        <v>11774133</v>
+        <v>10535742</v>
       </c>
       <c r="H85" t="n">
-        <v>392981655</v>
+        <v>366939964</v>
       </c>
       <c r="I85" t="n">
-        <v>12482326</v>
+        <v>11433678</v>
       </c>
     </row>
     <row r="86">
@@ -3260,29 +3260,29 @@
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2020-1</t>
+          <t>2019-7</t>
         </is>
       </c>
       <c r="C86" t="n">
-        <v>946154207</v>
+        <v>880802135</v>
       </c>
       <c r="D86" t="n">
-        <v>27334661</v>
+        <v>24507393</v>
       </c>
       <c r="E86" t="n">
-        <v>1193501410</v>
+        <v>1107726574</v>
       </c>
       <c r="F86" t="n">
-        <v>13122036</v>
+        <v>11888849</v>
       </c>
       <c r="G86" t="n">
-        <v>11876142</v>
+        <v>10866692</v>
       </c>
       <c r="H86" t="n">
-        <v>398242743</v>
+        <v>371523884</v>
       </c>
       <c r="I86" t="n">
-        <v>12688307</v>
+        <v>11600356</v>
       </c>
     </row>
     <row r="87">
@@ -3293,29 +3293,29 @@
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2020-2</t>
+          <t>2019-8</t>
         </is>
       </c>
       <c r="C87" t="n">
-        <v>958166620</v>
+        <v>889510127</v>
       </c>
       <c r="D87" t="n">
-        <v>27800443</v>
+        <v>24650245</v>
       </c>
       <c r="E87" t="n">
-        <v>1208788692</v>
+        <v>1121610769</v>
       </c>
       <c r="F87" t="n">
-        <v>13413169</v>
+        <v>12005371</v>
       </c>
       <c r="G87" t="n">
-        <v>12027059</v>
+        <v>11170215</v>
       </c>
       <c r="H87" t="n">
-        <v>403554878</v>
+        <v>375020844</v>
       </c>
       <c r="I87" t="n">
-        <v>12872182</v>
+        <v>11777317</v>
       </c>
     </row>
     <row r="88">
@@ -3326,29 +3326,29 @@
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2020-3</t>
+          <t>2019-9</t>
         </is>
       </c>
       <c r="C88" t="n">
-        <v>969242261</v>
+        <v>898551930</v>
       </c>
       <c r="D88" t="n">
-        <v>28241700</v>
+        <v>24980071</v>
       </c>
       <c r="E88" t="n">
-        <v>1221533733</v>
+        <v>1135376766</v>
       </c>
       <c r="F88" t="n">
-        <v>13604415</v>
+        <v>12156618</v>
       </c>
       <c r="G88" t="n">
-        <v>12253222</v>
+        <v>11427529</v>
       </c>
       <c r="H88" t="n">
-        <v>409583820</v>
+        <v>377249300</v>
       </c>
       <c r="I88" t="n">
-        <v>13058052</v>
+        <v>11939179</v>
       </c>
     </row>
     <row r="89">
@@ -3359,29 +3359,29 @@
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2020-4</t>
+          <t>2019-10</t>
         </is>
       </c>
       <c r="C89" t="n">
-        <v>977724176</v>
+        <v>908350723</v>
       </c>
       <c r="D89" t="n">
-        <v>28277901</v>
+        <v>25439284</v>
       </c>
       <c r="E89" t="n">
-        <v>1232305461</v>
+        <v>1149880184</v>
       </c>
       <c r="F89" t="n">
-        <v>13738600</v>
+        <v>12390777</v>
       </c>
       <c r="G89" t="n">
-        <v>12538119</v>
+        <v>11587718</v>
       </c>
       <c r="H89" t="n">
-        <v>414248452</v>
+        <v>380925892</v>
       </c>
       <c r="I89" t="n">
-        <v>13211650</v>
+        <v>12091477</v>
       </c>
     </row>
     <row r="90">
@@ -3392,29 +3392,29 @@
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2020-5</t>
+          <t>2019-11</t>
         </is>
       </c>
       <c r="C90" t="n">
-        <v>986283890</v>
+        <v>919942687</v>
       </c>
       <c r="D90" t="n">
-        <v>28342241</v>
+        <v>26113593</v>
       </c>
       <c r="E90" t="n">
-        <v>1243077601</v>
+        <v>1161822476</v>
       </c>
       <c r="F90" t="n">
-        <v>13931405</v>
+        <v>12604428</v>
       </c>
       <c r="G90" t="n">
-        <v>12870353</v>
+        <v>11680417</v>
       </c>
       <c r="H90" t="n">
-        <v>420197860</v>
+        <v>386549724</v>
       </c>
       <c r="I90" t="n">
-        <v>13384343</v>
+        <v>12276656</v>
       </c>
     </row>
     <row r="91">
@@ -3425,29 +3425,29 @@
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2020-6</t>
+          <t>2019-12</t>
         </is>
       </c>
       <c r="C91" t="n">
-        <v>994974846</v>
+        <v>932508702</v>
       </c>
       <c r="D91" t="n">
-        <v>28745102</v>
+        <v>26655982</v>
       </c>
       <c r="E91" t="n">
-        <v>1253029125</v>
+        <v>1176740986</v>
       </c>
       <c r="F91" t="n">
-        <v>14061580</v>
+        <v>12879498</v>
       </c>
       <c r="G91" t="n">
-        <v>13181759</v>
+        <v>11774133</v>
       </c>
       <c r="H91" t="n">
-        <v>426049737</v>
+        <v>392981655</v>
       </c>
       <c r="I91" t="n">
-        <v>13549021</v>
+        <v>12482326</v>
       </c>
     </row>
     <row r="92">
@@ -3458,29 +3458,29 @@
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2020-7</t>
+          <t>2019</t>
         </is>
       </c>
       <c r="C92" t="n">
-        <v>1004185874</v>
+        <v>304629546018</v>
       </c>
       <c r="D92" t="n">
-        <v>29224851</v>
+        <v>6738312866</v>
       </c>
       <c r="E92" t="n">
-        <v>1263951588</v>
+        <v>401938337067</v>
       </c>
       <c r="F92" t="n">
-        <v>14184003</v>
+        <v>3496302474</v>
       </c>
       <c r="G92" t="n">
-        <v>13552865</v>
+        <v>2675491191</v>
       </c>
       <c r="H92" t="n">
-        <v>430846960</v>
+        <v>140737071085</v>
       </c>
       <c r="I92" t="n">
-        <v>13706901</v>
+        <v>3152331624</v>
       </c>
     </row>
     <row r="93">
@@ -3491,29 +3491,29 @@
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2020-8</t>
+          <t>2020-1</t>
         </is>
       </c>
       <c r="C93" t="n">
-        <v>1012681365</v>
+        <v>946154207</v>
       </c>
       <c r="D93" t="n">
-        <v>29645666</v>
+        <v>27334661</v>
       </c>
       <c r="E93" t="n">
-        <v>1275282656</v>
+        <v>1193501410</v>
       </c>
       <c r="F93" t="n">
-        <v>14313638</v>
+        <v>13122036</v>
       </c>
       <c r="G93" t="n">
-        <v>13878155</v>
+        <v>11876142</v>
       </c>
       <c r="H93" t="n">
-        <v>434700811</v>
+        <v>398242743</v>
       </c>
       <c r="I93" t="n">
-        <v>13851508</v>
+        <v>12688307</v>
       </c>
     </row>
     <row r="94">
@@ -3524,29 +3524,29 @@
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2020-9</t>
+          <t>2020-2</t>
         </is>
       </c>
       <c r="C94" t="n">
-        <v>1021709717</v>
+        <v>958166620</v>
       </c>
       <c r="D94" t="n">
-        <v>30132063</v>
+        <v>27800443</v>
       </c>
       <c r="E94" t="n">
-        <v>1288148694</v>
+        <v>1208788692</v>
       </c>
       <c r="F94" t="n">
-        <v>14447375</v>
+        <v>13413169</v>
       </c>
       <c r="G94" t="n">
-        <v>14146761</v>
+        <v>12027059</v>
       </c>
       <c r="H94" t="n">
-        <v>438002851</v>
+        <v>403554878</v>
       </c>
       <c r="I94" t="n">
-        <v>14007318</v>
+        <v>12872182</v>
       </c>
     </row>
     <row r="95">
@@ -3557,29 +3557,29 @@
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2020-10</t>
+          <t>2020-3</t>
         </is>
       </c>
       <c r="C95" t="n">
-        <v>1032293097</v>
+        <v>969242261</v>
       </c>
       <c r="D95" t="n">
-        <v>30449027</v>
+        <v>28241700</v>
       </c>
       <c r="E95" t="n">
-        <v>1302233658</v>
+        <v>1221533733</v>
       </c>
       <c r="F95" t="n">
-        <v>14693959</v>
+        <v>13604415</v>
       </c>
       <c r="G95" t="n">
-        <v>14300299</v>
+        <v>12253222</v>
       </c>
       <c r="H95" t="n">
-        <v>442539832</v>
+        <v>409583820</v>
       </c>
       <c r="I95" t="n">
-        <v>14157782</v>
+        <v>13058052</v>
       </c>
     </row>
     <row r="96">
@@ -3590,29 +3590,29 @@
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2020-11</t>
+          <t>2020-4</t>
         </is>
       </c>
       <c r="C96" t="n">
-        <v>1043214247</v>
+        <v>977724176</v>
       </c>
       <c r="D96" t="n">
-        <v>31082716</v>
+        <v>28277901</v>
       </c>
       <c r="E96" t="n">
-        <v>1315733103</v>
+        <v>1232305461</v>
       </c>
       <c r="F96" t="n">
-        <v>14891265</v>
+        <v>13738600</v>
       </c>
       <c r="G96" t="n">
-        <v>14440520</v>
+        <v>12538119</v>
       </c>
       <c r="H96" t="n">
-        <v>446473454</v>
+        <v>414248452</v>
       </c>
       <c r="I96" t="n">
-        <v>14350623</v>
+        <v>13211650</v>
       </c>
     </row>
     <row r="97">
@@ -3623,29 +3623,29 @@
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2020-12</t>
+          <t>2020-5</t>
         </is>
       </c>
       <c r="C97" t="n">
-        <v>1056127012</v>
+        <v>986283890</v>
       </c>
       <c r="D97" t="n">
-        <v>31670320</v>
+        <v>28342241</v>
       </c>
       <c r="E97" t="n">
-        <v>1331054550</v>
+        <v>1243077601</v>
       </c>
       <c r="F97" t="n">
-        <v>15174851</v>
+        <v>13931405</v>
       </c>
       <c r="G97" t="n">
-        <v>14509836</v>
+        <v>12870353</v>
       </c>
       <c r="H97" t="n">
-        <v>451509593</v>
+        <v>420197860</v>
       </c>
       <c r="I97" t="n">
-        <v>14538654</v>
+        <v>13384343</v>
       </c>
     </row>
     <row r="98">
@@ -3656,29 +3656,29 @@
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021-1</t>
+          <t>2020-6</t>
         </is>
       </c>
       <c r="C98" t="n">
-        <v>1070667085</v>
+        <v>994974846</v>
       </c>
       <c r="D98" t="n">
-        <v>32373552</v>
+        <v>28745102</v>
       </c>
       <c r="E98" t="n">
-        <v>1346723788</v>
+        <v>1253029125</v>
       </c>
       <c r="F98" t="n">
-        <v>15415564</v>
+        <v>14061580</v>
       </c>
       <c r="G98" t="n">
-        <v>14588441</v>
+        <v>13181759</v>
       </c>
       <c r="H98" t="n">
-        <v>457786296</v>
+        <v>426049737</v>
       </c>
       <c r="I98" t="n">
-        <v>14726256</v>
+        <v>13549021</v>
       </c>
     </row>
     <row r="99">
@@ -3689,29 +3689,29 @@
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021-2</t>
+          <t>2020-7</t>
         </is>
       </c>
       <c r="C99" t="n">
-        <v>1082150841</v>
+        <v>1004185874</v>
       </c>
       <c r="D99" t="n">
-        <v>32913047</v>
+        <v>29224851</v>
       </c>
       <c r="E99" t="n">
-        <v>1359394730</v>
+        <v>1263951588</v>
       </c>
       <c r="F99" t="n">
-        <v>15677728</v>
+        <v>14184003</v>
       </c>
       <c r="G99" t="n">
-        <v>14743500</v>
+        <v>13552865</v>
       </c>
       <c r="H99" t="n">
-        <v>463469937</v>
+        <v>430846960</v>
       </c>
       <c r="I99" t="n">
-        <v>14897413</v>
+        <v>13706901</v>
       </c>
     </row>
     <row r="100">
@@ -3722,29 +3722,29 @@
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021-3</t>
+          <t>2020-8</t>
         </is>
       </c>
       <c r="C100" t="n">
-        <v>1094105037</v>
+        <v>1012681365</v>
       </c>
       <c r="D100" t="n">
-        <v>33496089</v>
+        <v>29645666</v>
       </c>
       <c r="E100" t="n">
-        <v>1373732099</v>
+        <v>1275282656</v>
       </c>
       <c r="F100" t="n">
-        <v>15910721</v>
+        <v>14313638</v>
       </c>
       <c r="G100" t="n">
-        <v>14904669</v>
+        <v>13878155</v>
       </c>
       <c r="H100" t="n">
-        <v>468601605</v>
+        <v>434700811</v>
       </c>
       <c r="I100" t="n">
-        <v>15087924</v>
+        <v>13851508</v>
       </c>
     </row>
     <row r="101">
@@ -3755,29 +3755,29 @@
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021-4</t>
+          <t>2020-9</t>
         </is>
       </c>
       <c r="C101" t="n">
-        <v>1104408682</v>
+        <v>1021709717</v>
       </c>
       <c r="D101" t="n">
-        <v>33906757</v>
+        <v>30132063</v>
       </c>
       <c r="E101" t="n">
-        <v>1384993720</v>
+        <v>1288148694</v>
       </c>
       <c r="F101" t="n">
-        <v>16100091</v>
+        <v>14447375</v>
       </c>
       <c r="G101" t="n">
-        <v>15253263</v>
+        <v>14146761</v>
       </c>
       <c r="H101" t="n">
-        <v>472088924</v>
+        <v>438002851</v>
       </c>
       <c r="I101" t="n">
-        <v>15233399</v>
+        <v>14007318</v>
       </c>
     </row>
     <row r="102">
@@ -3788,29 +3788,29 @@
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021-5</t>
+          <t>2020-10</t>
         </is>
       </c>
       <c r="C102" t="n">
-        <v>1114177480</v>
+        <v>1032293097</v>
       </c>
       <c r="D102" t="n">
-        <v>33979850</v>
+        <v>30449027</v>
       </c>
       <c r="E102" t="n">
-        <v>1398104118</v>
+        <v>1302233658</v>
       </c>
       <c r="F102" t="n">
-        <v>16298614</v>
+        <v>14693959</v>
       </c>
       <c r="G102" t="n">
-        <v>15607257</v>
+        <v>14300299</v>
       </c>
       <c r="H102" t="n">
-        <v>477731894</v>
+        <v>442539832</v>
       </c>
       <c r="I102" t="n">
-        <v>15386350</v>
+        <v>14157782</v>
       </c>
     </row>
     <row r="103">
@@ -3821,29 +3821,29 @@
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021-6</t>
+          <t>2020-11</t>
         </is>
       </c>
       <c r="C103" t="n">
-        <v>1123240860</v>
+        <v>1043214247</v>
       </c>
       <c r="D103" t="n">
-        <v>34224797</v>
+        <v>31082716</v>
       </c>
       <c r="E103" t="n">
-        <v>1410998788</v>
+        <v>1315733103</v>
       </c>
       <c r="F103" t="n">
-        <v>16469290</v>
+        <v>14891265</v>
       </c>
       <c r="G103" t="n">
-        <v>15979086</v>
+        <v>14440520</v>
       </c>
       <c r="H103" t="n">
-        <v>483701508</v>
+        <v>446473454</v>
       </c>
       <c r="I103" t="n">
-        <v>15523526</v>
+        <v>14350623</v>
       </c>
     </row>
     <row r="104">
@@ -3854,29 +3854,29 @@
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021-7</t>
+          <t>2020-12</t>
         </is>
       </c>
       <c r="C104" t="n">
-        <v>1132506613</v>
+        <v>1056127012</v>
       </c>
       <c r="D104" t="n">
-        <v>34356500</v>
+        <v>31670320</v>
       </c>
       <c r="E104" t="n">
-        <v>1423962811</v>
+        <v>1331054550</v>
       </c>
       <c r="F104" t="n">
-        <v>16625414</v>
+        <v>15174851</v>
       </c>
       <c r="G104" t="n">
-        <v>16355637</v>
+        <v>14509836</v>
       </c>
       <c r="H104" t="n">
-        <v>489474701</v>
+        <v>451509593</v>
       </c>
       <c r="I104" t="n">
-        <v>15703225</v>
+        <v>14538654</v>
       </c>
     </row>
     <row r="105">
@@ -3887,29 +3887,29 @@
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021-8</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="C105" t="n">
-        <v>1140975050</v>
+        <v>621261849348</v>
       </c>
       <c r="D105" t="n">
-        <v>34379890</v>
+        <v>13827572423</v>
       </c>
       <c r="E105" t="n">
-        <v>1437189318</v>
+        <v>819005314405</v>
       </c>
       <c r="F105" t="n">
-        <v>16777064</v>
+        <v>7162181244</v>
       </c>
       <c r="G105" t="n">
-        <v>16730425</v>
+        <v>5510557472</v>
       </c>
       <c r="H105" t="n">
-        <v>493839410</v>
+        <v>286590093161</v>
       </c>
       <c r="I105" t="n">
-        <v>15868350</v>
+        <v>6468039589</v>
       </c>
     </row>
     <row r="106">
@@ -3920,29 +3920,29 @@
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021-9</t>
+          <t>2021-1</t>
         </is>
       </c>
       <c r="C106" t="n">
-        <v>1150049754</v>
+        <v>1070667085</v>
       </c>
       <c r="D106" t="n">
-        <v>34578535</v>
+        <v>32373552</v>
       </c>
       <c r="E106" t="n">
-        <v>1450087306</v>
+        <v>1346723788</v>
       </c>
       <c r="F106" t="n">
-        <v>16900126</v>
+        <v>15415564</v>
       </c>
       <c r="G106" t="n">
-        <v>17042433</v>
+        <v>14588441</v>
       </c>
       <c r="H106" t="n">
-        <v>496887148</v>
+        <v>457786296</v>
       </c>
       <c r="I106" t="n">
-        <v>16023376</v>
+        <v>14726256</v>
       </c>
     </row>
     <row r="107">
@@ -3953,29 +3953,29 @@
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021-10</t>
+          <t>2021-2</t>
         </is>
       </c>
       <c r="C107" t="n">
-        <v>1160508336</v>
+        <v>1082150841</v>
       </c>
       <c r="D107" t="n">
-        <v>34805886</v>
+        <v>32913047</v>
       </c>
       <c r="E107" t="n">
-        <v>1466156365</v>
+        <v>1359394730</v>
       </c>
       <c r="F107" t="n">
-        <v>17191052</v>
+        <v>15677728</v>
       </c>
       <c r="G107" t="n">
-        <v>17310301</v>
+        <v>14743500</v>
       </c>
       <c r="H107" t="n">
-        <v>499669245</v>
+        <v>463469937</v>
       </c>
       <c r="I107" t="n">
-        <v>16176393</v>
+        <v>14897413</v>
       </c>
     </row>
     <row r="108">
@@ -3986,29 +3986,29 @@
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021-11</t>
+          <t>2021-3</t>
         </is>
       </c>
       <c r="C108" t="n">
-        <v>1172779766</v>
+        <v>1094105037</v>
       </c>
       <c r="D108" t="n">
-        <v>35394141</v>
+        <v>33496089</v>
       </c>
       <c r="E108" t="n">
-        <v>1481894099</v>
+        <v>1373732099</v>
       </c>
       <c r="F108" t="n">
-        <v>17399686</v>
+        <v>15910721</v>
       </c>
       <c r="G108" t="n">
-        <v>17432752</v>
+        <v>14904669</v>
       </c>
       <c r="H108" t="n">
-        <v>503247078</v>
+        <v>468601605</v>
       </c>
       <c r="I108" t="n">
-        <v>16355390</v>
+        <v>15087924</v>
       </c>
     </row>
     <row r="109">
@@ -4019,29 +4019,326 @@
       </c>
       <c r="B109" t="inlineStr">
         <is>
+          <t>2021-4</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1104408682</v>
+      </c>
+      <c r="D109" t="n">
+        <v>33906757</v>
+      </c>
+      <c r="E109" t="n">
+        <v>1384993720</v>
+      </c>
+      <c r="F109" t="n">
+        <v>16100091</v>
+      </c>
+      <c r="G109" t="n">
+        <v>15253263</v>
+      </c>
+      <c r="H109" t="n">
+        <v>472088924</v>
+      </c>
+      <c r="I109" t="n">
+        <v>15233399</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>2021-5</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1114177480</v>
+      </c>
+      <c r="D110" t="n">
+        <v>33979850</v>
+      </c>
+      <c r="E110" t="n">
+        <v>1398104118</v>
+      </c>
+      <c r="F110" t="n">
+        <v>16298614</v>
+      </c>
+      <c r="G110" t="n">
+        <v>15607257</v>
+      </c>
+      <c r="H110" t="n">
+        <v>477731894</v>
+      </c>
+      <c r="I110" t="n">
+        <v>15386350</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>2021-6</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1123240860</v>
+      </c>
+      <c r="D111" t="n">
+        <v>34224797</v>
+      </c>
+      <c r="E111" t="n">
+        <v>1410998788</v>
+      </c>
+      <c r="F111" t="n">
+        <v>16469290</v>
+      </c>
+      <c r="G111" t="n">
+        <v>15979086</v>
+      </c>
+      <c r="H111" t="n">
+        <v>483701508</v>
+      </c>
+      <c r="I111" t="n">
+        <v>15523526</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>2021-7</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1132506613</v>
+      </c>
+      <c r="D112" t="n">
+        <v>34356500</v>
+      </c>
+      <c r="E112" t="n">
+        <v>1423962811</v>
+      </c>
+      <c r="F112" t="n">
+        <v>16625414</v>
+      </c>
+      <c r="G112" t="n">
+        <v>16355637</v>
+      </c>
+      <c r="H112" t="n">
+        <v>489474701</v>
+      </c>
+      <c r="I112" t="n">
+        <v>15703225</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>2021-8</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>1140975050</v>
+      </c>
+      <c r="D113" t="n">
+        <v>34379890</v>
+      </c>
+      <c r="E113" t="n">
+        <v>1437189318</v>
+      </c>
+      <c r="F113" t="n">
+        <v>16777064</v>
+      </c>
+      <c r="G113" t="n">
+        <v>16730425</v>
+      </c>
+      <c r="H113" t="n">
+        <v>493839410</v>
+      </c>
+      <c r="I113" t="n">
+        <v>15868350</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>2021-9</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1150049754</v>
+      </c>
+      <c r="D114" t="n">
+        <v>34578535</v>
+      </c>
+      <c r="E114" t="n">
+        <v>1450087306</v>
+      </c>
+      <c r="F114" t="n">
+        <v>16900126</v>
+      </c>
+      <c r="G114" t="n">
+        <v>17042433</v>
+      </c>
+      <c r="H114" t="n">
+        <v>496887148</v>
+      </c>
+      <c r="I114" t="n">
+        <v>16023376</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>2021-10</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1160508336</v>
+      </c>
+      <c r="D115" t="n">
+        <v>34805886</v>
+      </c>
+      <c r="E115" t="n">
+        <v>1466156365</v>
+      </c>
+      <c r="F115" t="n">
+        <v>17191052</v>
+      </c>
+      <c r="G115" t="n">
+        <v>17310301</v>
+      </c>
+      <c r="H115" t="n">
+        <v>499669245</v>
+      </c>
+      <c r="I115" t="n">
+        <v>16176393</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>2021-11</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>1172779766</v>
+      </c>
+      <c r="D116" t="n">
+        <v>35394141</v>
+      </c>
+      <c r="E116" t="n">
+        <v>1481894099</v>
+      </c>
+      <c r="F116" t="n">
+        <v>17399686</v>
+      </c>
+      <c r="G116" t="n">
+        <v>17432752</v>
+      </c>
+      <c r="H116" t="n">
+        <v>503247078</v>
+      </c>
+      <c r="I116" t="n">
+        <v>16355390</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
           <t>2021-12</t>
         </is>
       </c>
-      <c r="C109" t="n">
+      <c r="C117" t="n">
         <v>1186924834</v>
       </c>
-      <c r="D109" t="n">
+      <c r="D117" t="n">
         <v>36072052</v>
       </c>
-      <c r="E109" t="n">
+      <c r="E117" t="n">
         <v>1499563577</v>
       </c>
-      <c r="F109" t="n">
+      <c r="F117" t="n">
         <v>17671182</v>
       </c>
-      <c r="G109" t="n">
+      <c r="G117" t="n">
         <v>17537161</v>
       </c>
-      <c r="H109" t="n">
+      <c r="H117" t="n">
         <v>507679795</v>
       </c>
-      <c r="I109" t="n">
+      <c r="I117" t="n">
         <v>16542875</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Auvergne</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1256056193034</v>
+      </c>
+      <c r="D118" t="n">
+        <v>28065625942</v>
+      </c>
+      <c r="E118" t="n">
+        <v>1655043429529</v>
+      </c>
+      <c r="F118" t="n">
+        <v>14522799020</v>
+      </c>
+      <c r="G118" t="n">
+        <v>11214599869</v>
+      </c>
+      <c r="H118" t="n">
+        <v>578994363863</v>
+      </c>
+      <c r="I118" t="n">
+        <v>13123603655</v>
       </c>
     </row>
   </sheetData>
